--- a/biology/Botanique/Orobanche_ludoviciana/Orobanche_ludoviciana.xlsx
+++ b/biology/Botanique/Orobanche_ludoviciana/Orobanche_ludoviciana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche ludoviciana est une plante de la famille des Orobanchaceae, originaire de l'ouest des États-Unis, et du Mexique.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée haute de 10 à 50 cm[1] possède des tiges pourpres, épaisses et écailleuses, qui poussent isolées ou en paquets. L'aspect écailleux est lié au fait que les feuilles, très réduites et non chlorophylliennes, sont collées à la tige sous la forme d'écailles.
-Appareil reproducteur
-La floraison a lieu de mars à septembre.
-Les fleurs, pourpres ou jaunâtres, apparaissent à l'aisselle de bractées, selon une symétrie bilatérale. La corolle mesure entre 1 et 4 cm de longueur. Elle est soudée en un tube se finissant en deux lèvres davantage colorées ; celle du haut est formée de deux lobes et légèrement redressée, celle du bas est formée de trois lobes.
-Le fruit est une capsule, sur laquelle le style est le plus souvent encore présent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée haute de 10 à 50 cm possède des tiges pourpres, épaisses et écailleuses, qui poussent isolées ou en paquets. L'aspect écailleux est lié au fait que les feuilles, très réduites et non chlorophylliennes, sont collées à la tige sous la forme d'écailles.
 </t>
         </is>
       </c>
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mode de vie</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme toutes les orobanches, Orobanche ludoviciana est une plante parasite. Cette espèce parasite les racines de certaines espèces d'Astéracées, telle que la Grande herbe à poux, ou de Solanacées, notamment des espèces cultivées telles que le tabac (Nicotiana tabacum) ou la tomate (Lycopersicum esculentum)[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à septembre.
+Les fleurs, pourpres ou jaunâtres, apparaissent à l'aisselle de bractées, selon une symétrie bilatérale. La corolle mesure entre 1 et 4 cm de longueur. Elle est soudée en un tube se finissant en deux lèvres davantage colorées ; celle du haut est formée de deux lobes et légèrement redressée, celle du bas est formée de trois lobes.
+Le fruit est une capsule, sur laquelle le style est le plus souvent encore présent.
 </t>
         </is>
       </c>
@@ -575,10 +596,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mode de vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les orobanches, Orobanche ludoviciana est une plante parasite. Cette espèce parasite les racines de certaines espèces d'Astéracées, telle que la Grande herbe à poux, ou de Solanacées, notamment des espèces cultivées telles que le tabac (Nicotiana tabacum) ou la tomate (Lycopersicum esculentum).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orobanche_ludoviciana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orobanche_ludoviciana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En association avec sa plante hôte, on peut la trouver dans les prairies, zones incultes et déserts de l'ouest des États-Unis et du Mexique, de l'État de Washington jusqu'au Mexique. Son aire de répartition s'étend, vers l'ouest, jusqu'au Texas, l'Oklahoma et le Wyoming.
 </t>
